--- a/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T08:49:59+00:00</t>
+    <t>2024-04-10T14:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:17:45+00:00</t>
+    <t>2024-04-10T15:31:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T15:31:34+00:00</t>
+    <t>2024-04-10T15:38:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
